--- a/models/calculation engines/row mining/original_inputs/mineinfo.xlsx
+++ b/models/calculation engines/row mining/original_inputs/mineinfo.xlsx
@@ -1,529 +1,524 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="20490" windowHeight="7770" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="243">
   <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dian Dian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBK Kindia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fria Kimbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alufer (Bel Air)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henan-Chine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMB Santou-Houda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMB SH no rail capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMB Malapouya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashapura Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMB Kaboye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMB Dabiss S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dabiss N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGB2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chalco Boffa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metro BH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metro Blend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metro LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuantan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABx Tasmania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gujarat &amp; Maharashtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Kalimantan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bintan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurum Xinfa-Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dom. Rep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discovery Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awaso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metallica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurukun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juruti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amrun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amrun HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rondon do Para</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huntly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurubuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCRusal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mokanji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boddington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBL South Johnston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willowdale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paragominas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cataguases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pocos de Caldas, Alcoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aroaima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname - AWACS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Pijiguaos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turgai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krasnogorsky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chhattisgarh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jharkhand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karnataka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madhya Pradesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odisha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andhra Pradesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamil Nadu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhan Co.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tan Rai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seydisehir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jajarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al-Baitha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delphi-Distomon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parnasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jajce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milici (Vlasenica)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niksic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kola Apatit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Onega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Ural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Ural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tikhvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiya-Shaltyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Gold plated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Intermediate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Cheap n Nasty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Included</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Mine+Roads/Rail+Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Mine+Roads/Rail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Mine only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mine name:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location: Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location: Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangeredi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bel Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North-West of Vanua Levu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boffa - Koniokhoure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95 kilometres north of Weipa on western Cape York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boffa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bald Hill, Launceston, Tasmania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontan, West India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedernales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarkwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vghena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hey Point, Cape York, Queensland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape York, Queensland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarawak</t>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>CBG</t>
+  </si>
+  <si>
+    <t>Dian Dian</t>
+  </si>
+  <si>
+    <t>GAC</t>
+  </si>
+  <si>
+    <t>CBK Kindia</t>
+  </si>
+  <si>
+    <t>Fria Kimbo</t>
+  </si>
+  <si>
+    <t>Alufer (Bel Air)</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>GDM</t>
+  </si>
+  <si>
+    <t>Henan-Chine</t>
+  </si>
+  <si>
+    <t>SMB Santou-Houda</t>
+  </si>
+  <si>
+    <t>SMB SH no rail capital</t>
+  </si>
+  <si>
+    <t>AMR</t>
+  </si>
+  <si>
+    <t>SMB Malapouya</t>
+  </si>
+  <si>
+    <t>Ashapura Guinea</t>
+  </si>
+  <si>
+    <t>SMB Kaboye</t>
+  </si>
+  <si>
+    <t>SMB Dabiss S</t>
+  </si>
+  <si>
+    <t>Dabiss N</t>
+  </si>
+  <si>
+    <t>AGB2A</t>
+  </si>
+  <si>
+    <t>Chalco Boffa</t>
+  </si>
+  <si>
+    <t>Rundi</t>
+  </si>
+  <si>
+    <t>SPIC</t>
+  </si>
+  <si>
+    <t>Metro BH1</t>
+  </si>
+  <si>
+    <t>Metro Blend</t>
+  </si>
+  <si>
+    <t>Metro LT</t>
+  </si>
+  <si>
+    <t>Kuantan</t>
+  </si>
+  <si>
+    <t>ABx Tasmania</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Gujarat &amp; Maharashtra</t>
+  </si>
+  <si>
+    <t>West Kalimantan</t>
+  </si>
+  <si>
+    <t>Bintan</t>
+  </si>
+  <si>
+    <t>Aurum Xinfa-Fiji</t>
+  </si>
+  <si>
+    <t>Dom. Rep.</t>
+  </si>
+  <si>
+    <t>Discovery Bay</t>
+  </si>
+  <si>
+    <t>Awaso</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Aurukun</t>
+  </si>
+  <si>
+    <t>Malaysia Other</t>
+  </si>
+  <si>
+    <t>MRN</t>
+  </si>
+  <si>
+    <t>Juruti</t>
+  </si>
+  <si>
+    <t>Mirai</t>
+  </si>
+  <si>
+    <t>Amrun</t>
+  </si>
+  <si>
+    <t>Amrun HT</t>
+  </si>
+  <si>
+    <t>Rondon do Para</t>
+  </si>
+  <si>
+    <t>Huntly</t>
+  </si>
+  <si>
+    <t>Vietnam Others</t>
+  </si>
+  <si>
+    <t>Weipa</t>
+  </si>
+  <si>
+    <t>Gove</t>
+  </si>
+  <si>
+    <t>Kurubuka</t>
+  </si>
+  <si>
+    <t>Guyana Others</t>
+  </si>
+  <si>
+    <t>UCRusal</t>
+  </si>
+  <si>
+    <t>Jamaica Other</t>
+  </si>
+  <si>
+    <t>Other Ghana</t>
+  </si>
+  <si>
+    <t>Mokanji</t>
+  </si>
+  <si>
+    <t>Boddington</t>
+  </si>
+  <si>
+    <t>QBL South Johnston</t>
+  </si>
+  <si>
+    <t>Indonesia Other</t>
+  </si>
+  <si>
+    <t>Willowdale</t>
+  </si>
+  <si>
+    <t>Paragominas</t>
+  </si>
+  <si>
+    <t>Cataguases</t>
+  </si>
+  <si>
+    <t>Pocos de Caldas, Alcoa</t>
+  </si>
+  <si>
+    <t>Brazil Others</t>
+  </si>
+  <si>
+    <t>Aroaima</t>
+  </si>
+  <si>
+    <t>Suriname - AWACS</t>
+  </si>
+  <si>
+    <t>Los Pijiguaos</t>
+  </si>
+  <si>
+    <t>Turgai</t>
+  </si>
+  <si>
+    <t>Krasnogorsky</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Nhan Co.</t>
+  </si>
+  <si>
+    <t>Tan Rai</t>
+  </si>
+  <si>
+    <t>Seydisehir</t>
+  </si>
+  <si>
+    <t>Jajarm</t>
+  </si>
+  <si>
+    <t>Al-Baitha</t>
+  </si>
+  <si>
+    <t>Bakony</t>
+  </si>
+  <si>
+    <t>Delphi-Distomon</t>
+  </si>
+  <si>
+    <t>Parnasse</t>
+  </si>
+  <si>
+    <t>Jajce</t>
+  </si>
+  <si>
+    <t>Milici (Vlasenica)</t>
+  </si>
+  <si>
+    <t>Niksic</t>
+  </si>
+  <si>
+    <t>Kola Apatit</t>
+  </si>
+  <si>
+    <t>North Onega</t>
+  </si>
+  <si>
+    <t>North Ural</t>
+  </si>
+  <si>
+    <t>South Ural</t>
+  </si>
+  <si>
+    <t>Tikhvin</t>
+  </si>
+  <si>
+    <t>Timan</t>
+  </si>
+  <si>
+    <t>Kiya-Shaltyr</t>
+  </si>
+  <si>
+    <t>Build Quality</t>
+  </si>
+  <si>
+    <t>1. Gold plated</t>
+  </si>
+  <si>
+    <t>2. Intermediate</t>
+  </si>
+  <si>
+    <t>3. Cheap n Nasty</t>
+  </si>
+  <si>
+    <t>Infrastructure Included</t>
+  </si>
+  <si>
+    <t>3. Mine+Roads/Rail+Port</t>
+  </si>
+  <si>
+    <t>2. Mine+Roads/Rail</t>
+  </si>
+  <si>
+    <t>1. Mine only</t>
+  </si>
+  <si>
+    <t>Mine name:</t>
+  </si>
+  <si>
+    <t>Brazil others</t>
+  </si>
+  <si>
+    <t>Location: Country</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Location: Other</t>
+  </si>
+  <si>
+    <t>Boke</t>
+  </si>
+  <si>
+    <t>Sangeredi</t>
+  </si>
+  <si>
+    <t>Bel Air</t>
+  </si>
+  <si>
+    <t>North-West of Vanua Levu</t>
+  </si>
+  <si>
+    <t>Boffa - Koniokhoure</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>95 kilometres north of Weipa on western Cape York</t>
+  </si>
+  <si>
+    <t>Boffa</t>
+  </si>
+  <si>
+    <t>Bald Hill, Launceston, Tasmania</t>
+  </si>
+  <si>
+    <t>Kontan, West India</t>
+  </si>
+  <si>
+    <t>Pedernales</t>
+  </si>
+  <si>
+    <t>Tarkwa</t>
+  </si>
+  <si>
+    <t>Vghena</t>
+  </si>
+  <si>
+    <t>Hey Point, Cape York, Queensland</t>
+  </si>
+  <si>
+    <t>Cape York, Queensland</t>
+  </si>
+  <si>
+    <t>Sarawak</t>
   </si>
   <si>
     <t xml:space="preserve">within the borders of the national forest of Saraca-Taquera </t>
   </si>
   <si>
-    <t xml:space="preserve">west of the State of Para</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zona da Mata District, State of Minas Gerais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 km south of Weipa and 40 km north of Aurukun, western Cape York Peninsula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rondon, Para State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwellingup WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gia Nghia, Dak Nong Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Cape York Peninsula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Project or Expansion ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existing Opn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expansion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company type: independent private company
+    <t>west of the State of Para</t>
+  </si>
+  <si>
+    <t>Zona da Mata District, State of Minas Gerais</t>
+  </si>
+  <si>
+    <t>40 km south of Weipa and 40 km north of Aurukun, western Cape York Peninsula</t>
+  </si>
+  <si>
+    <t>Rondon, Para State</t>
+  </si>
+  <si>
+    <t>Dwellingup WA</t>
+  </si>
+  <si>
+    <t>Gia Nghia, Dak Nong Province</t>
+  </si>
+  <si>
+    <t>Western Cape York Peninsula</t>
+  </si>
+  <si>
+    <t>Northern Territory</t>
+  </si>
+  <si>
+    <t>New Project or Expansion ?</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Existing Opn.</t>
+  </si>
+  <si>
+    <t>Expansion</t>
+  </si>
+  <si>
+    <t>Finance structure</t>
+  </si>
+  <si>
+    <t>Company type: independent private company
 Funding Source: internally funded</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: ??
+    <t>Company type: ??
 Funding Source: ??</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: independent public company
+    <t>Company type: independent public company
 Funding Source: internally funded</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: (JV Rusal and Guinea Gvt ?)
+    <t>Company type: (JV Rusal and Guinea Gvt ?)
 Funding Source: ??</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: Wholly owned subsidiary of the private company Alufer Mining Limited
+    <t>Company type: Wholly owned subsidiary of the private company Alufer Mining Limited
 Funding Source: Variety
 Other comments: Financing period is not over.</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: owned subsidiary
+    <t>Company type: owned subsidiary
 Funding Source: internally funded</t>
   </si>
   <si>
@@ -532,17 +527,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: SOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company type:  independent private company (Metro Mining, with shareholders including Xinfa and DADI Engineering, Chinese engineering processing)
+    <t>Company type: SOE</t>
+  </si>
+  <si>
+    <t>Company type:  independent private company (Metro Mining, with shareholders including Xinfa and DADI Engineering, Chinese engineering processing)
 Funding Source: internally funded</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type:  independent private company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company type: independent companies (multiple)
+    <t>Company type:  independent private company</t>
+  </si>
+  <si>
+    <t>Company type: independent companies (multiple)
 Funding Source: internally funded, loan funded, offtake agreement funded</t>
   </si>
   <si>
@@ -551,19 +546,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: independent companies (multiple)
+    <t>Company type: independent companies (multiple)
 Funding Source: internally funded, loan funded</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: independent private company
+    <t>Company type: independent private company
 Funding Source: loan funded, off take agreement, private equity funded</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type:independent private company
+    <t>Company type:independent private company
 Funding Source: internally funded</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: independent public company
+    <t>Company type: independent public company
 Funding Source: loan funded, off take agreement, government funded, stock market</t>
   </si>
   <si>
@@ -571,15 +566,15 @@
 Funding Source: internally funded,  private equity funded, </t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: independent private company (Green Coast, wholly owned subsidiary of Racle Resources)
+    <t>Company type: independent private company (Green Coast, wholly owned subsidiary of Racle Resources)
 Funding Source: internally funded at present</t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: not yet certain
+    <t>Company type: not yet certain
 Funding Source: not available</t>
   </si>
   <si>
-    <t xml:space="preserve">Unknown</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t xml:space="preserve">Company type: independent public company
@@ -592,7 +587,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Company type: independent public company (Rio Tinto)
+    <t>Company type: independent public company (Rio Tinto)
 Funding Source: internally funded</t>
   </si>
   <si>
@@ -606,72 +601,72 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mix and match a few of these … or others!:
+    <t>Mix and match a few of these … or others!:
 Company type: independent public company (AWAC 40%), wholly owned subsidiary (Vinacomin 51%), Others (9%)
 Funding Source: internally funded, government funded (partial)
 AWAC signed a cooperation agreement with Vinacomin to conduct a joint feasibility study, which is subject to approval by the Government of Vietnam</t>
   </si>
   <si>
-    <t xml:space="preserve">Mining method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Cut - Large Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Cut - Medium Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Cut - Small Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project risks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sovereign: High., Despite Guinea's high risks has maintaned continuous operation via good management
+    <t>Mining method</t>
+  </si>
+  <si>
+    <t>Open Cut - Large Scale</t>
+  </si>
+  <si>
+    <t>Open Cut - Medium Scale</t>
+  </si>
+  <si>
+    <t>Open Cut - Small Scale</t>
+  </si>
+  <si>
+    <t>Project risks</t>
+  </si>
+  <si>
+    <t>Sovereign: High., Despite Guinea's high risks has maintaned continuous operation via good management
 Economic: Low, low and mature operation
 Technical: Low, mature mining method
 Comm./Env.: Low, accepted company</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: ??
+    <t>Sovereign: ??
 Economic: ??
 Technical: ??
 Comm./Env.: ??</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: High., the changeable government influence might accur in the project
+    <t>Sovereign: High., the changeable government influence might accur in the project
 Economic: High., infractructure costs are likely very
 Technical: Low., no new technical challenges
 Comm./Env.: Med., Communities in Guinea can be very demanding, need support from Govt. Comm. and Env. department</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: High, tend to have the government support
+    <t>Sovereign: High, tend to have the government support
 Economic: Med., high quality bauxite but poor infrastructure
 Technical: Med.,
 Comm./Env.: High, Ebola virus disease
 Other: The financing progress is still limited</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Low, subsidiary of Xinfa and government support
+    <t>Sovereign: Low, subsidiary of Xinfa and government support
 Economic: Med., little insfrastructure and wholly new business in the region
 Technical: Low, low technology barrier
 Comm./Env.: Med., Env protection pressure as in other countries</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: High., the changeable government influence might accur in the project
+    <t>Sovereign: High., the changeable government influence might accur in the project
 Economic: High., unless infractructure costs can be shared they are likley to be insurmountable
 Technical: Low., no new issues
 Comm./Env.: Med., Communities in Guinea can be very demanding, need support from Govt. Comm. and Env. department</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: High, but has government support
+    <t>Sovereign: High, but has government support
 Economic: Med., high quality bauxite but poor infrastructure
 Technical: Med.,
 Comm./Env.: High, Ebola virus disease
 Other: The financing progress is still limited</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Low
+    <t>Sovereign: Low
 Economic: Low, avoiding a
 number of significant costs traditionally associated
 with production of a beneficiated bauxite product,
@@ -682,45 +677,45 @@
 Comm./Env.: Med. Native title agreements must be negotiated</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Med., influence of government and local community
+    <t>Sovereign: Med., influence of government and local community
 Economic: Med., risk from infrastructure and seasonal factor
 Technical: Med., new business in last two years
 Comm./Env.: Med., high Env pressure and cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Low, ABx sole operator in Tasmania and recieved grants from the local goverment
+    <t>Sovereign: Low, ABx sole operator in Tasmania and recieved grants from the local goverment
 Economic: Med., high quality bx but with higher CAPEX &amp; OPEX for delivery to China
 Technical: Low, mature mining technology
 Comm./Env.: Med., strict Env protection law in Australia but welcomed for job creation
 Other: Able to use exsiting railways and ports. Also holds promising prospects in Binjour Qld.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Med.,strong influence from government
+    <t>Sovereign: Med.,strong influence from government
 Economic: Med., low cost but high export duties and royalties and difficulties in transportation
 Technical: Low.
 Comm./Env.: Med., high Env protection pressure in India</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: High, strong influence of government and local community
+    <t>Sovereign: High, strong influence of government and local community
 Economic: Med., risk from infrastructure and seasonal factors
 Technical: Med., new business in last two years
 Comm./Env.: Med., high Env pressure and cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: High, dispute with government as to land use
+    <t>Sovereign: High, dispute with government as to land use
 Economic: Med., the volume would restrict the income and margin of the project
 Technical: Low, low barrier and good terrain
 Comm./Env.: High, the destruction of farming and tourist potential has incited government warnings / bans</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Med., dispute with government over export charges
+    <t>Sovereign: Med., dispute with government over export charges
 Economic: Med.pricing would effect the project as the clients is far away with high freight
 Technical: Low, the facility and mining mothed is quite mature and experienced
 Comm./Env.: Med., the Env protection pressure is high, but not difficult to cope with
 Other: Jamaica wants more downstream activity - may pressure companies to comply</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Med., potential for changeable government influences
+    <t>Sovereign: Med., potential for changeable government influences
 Economic: Med., infractructure might increase project costs
 Technical: Low, open-pit mining well established
 Comm./Env.: High, the project has warnings from EPA of Ghana government</t>
@@ -740,7 +735,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Med. Must negotiate native title agreements
+    <t>Sovereign: Med. Must negotiate native title agreements
 Economic: Med.: slightly lanlocked and lower grade than RTA leases
 Technical: Low
 Comm./Env.: Low</t>
@@ -760,19 +755,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Low.
+    <t>Sovereign: Low.
 Economic: Low.
 Technical: Low.
 Comm./Env.: Low</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Low
+    <t>Sovereign: Low
 Economic: Low
 Technical: Low
 Comm./Env.: Low</t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: low, government and local communities are friendly to mining
+    <t>Sovereign: low, government and local communities are friendly to mining
 Economic:low, self-supplied energy
 Technical: low
 Comm./Env.: Med
@@ -786,58 +781,58 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Sovereign: Med., wait for government's approval
+    <t>Sovereign: Med., wait for government's approval
 Economic: Med.
 Technical: High, with support from AWAC
 Comm./Env.: Low, environmental protests argue against</t>
   </si>
   <si>
-    <t xml:space="preserve">Overall probability of success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med., finishing the project ontime and with good cost management would be the key issue. Despite high costs the project owner will likely proceed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med. We still see little confidence of international investors in African counties like Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med., the reserve and mining cost would be the key issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med., stable supply would be a risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low, the key problem being the landed costs into China for the grade of bauxite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med., stability of production and export would be the key risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med., environmental and community pressure are likley to hamper long term operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med., pricing margin and freight would be the key issue for the future bx sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med., if the project fails to meet the government's requirements, it might be suspended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med., close to coastal waters and int'l shipping routes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med. The mine was delayed due to shortages of equipment and materials needed to operate the mine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High, the project is an extention of the Weipa bauxite mine; based on a series of social and environmental studies and extensive consultation with stakeholders</t>
+    <t>Overall probability of success</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Med., finishing the project ontime and with good cost management would be the key issue. Despite high costs the project owner will likely proceed</t>
+  </si>
+  <si>
+    <t>Med. We still see little confidence of international investors in African counties like Guinea</t>
+  </si>
+  <si>
+    <t>Med., the reserve and mining cost would be the key issue</t>
+  </si>
+  <si>
+    <t>Low.</t>
+  </si>
+  <si>
+    <t>Med.</t>
+  </si>
+  <si>
+    <t>Med., stable supply would be a risk</t>
+  </si>
+  <si>
+    <t>Low, the key problem being the landed costs into China for the grade of bauxite</t>
+  </si>
+  <si>
+    <t>Med., stability of production and export would be the key risk</t>
+  </si>
+  <si>
+    <t>Med., environmental and community pressure are likley to hamper long term operation</t>
+  </si>
+  <si>
+    <t>Med., pricing margin and freight would be the key issue for the future bx sales</t>
+  </si>
+  <si>
+    <t>Med., if the project fails to meet the government's requirements, it might be suspended</t>
+  </si>
+  <si>
+    <t>Med., close to coastal waters and int'l shipping routes</t>
+  </si>
+  <si>
+    <t>Med. The mine was delayed due to shortages of equipment and materials needed to operate the mine.</t>
+  </si>
+  <si>
+    <t>High, the project is an extention of the Weipa bauxite mine; based on a series of social and environmental studies and extensive consultation with stakeholders</t>
   </si>
   <si>
     <t xml:space="preserve"> High, tier 1 mineral resoure, flexible energy matrix, convenient logistics</t>
@@ -847,28 +842,28 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Impact of new technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could use transpaoding to enable Capesize vessel transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension of initial loading facilities could expansion of capacity to &gt;10 MTPY &amp; enable Capesize vessel loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bauxite is planned to be hauled to the barge load out facility at the Skardon River, then transported by barge, approximately 10 km offshore where it will be transshipped into bulk carriers for export to overseas customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no likley impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operates ore beneficiation facilities at its mines, which are connected by rail to a loading terminal and port facilities on the Trombetas River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mine include a port along the Amazon River, and a 55-km railway transporting bx to the port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potential for autonomous vehicles to reduce labour costs</t>
+    <t>Impact of new technologies</t>
+  </si>
+  <si>
+    <t>Could use transpaoding to enable Capesize vessel transport</t>
+  </si>
+  <si>
+    <t>Extension of initial loading facilities could expansion of capacity to &gt;10 MTPY &amp; enable Capesize vessel loading</t>
+  </si>
+  <si>
+    <t>The bauxite is planned to be hauled to the barge load out facility at the Skardon River, then transported by barge, approximately 10 km offshore where it will be transshipped into bulk carriers for export to overseas customers</t>
+  </si>
+  <si>
+    <t>no likley impact</t>
+  </si>
+  <si>
+    <t>operates ore beneficiation facilities at its mines, which are connected by rail to a loading terminal and port facilities on the Trombetas River</t>
+  </si>
+  <si>
+    <t>The mine include a port along the Amazon River, and a 55-km railway transporting bx to the port</t>
+  </si>
+  <si>
+    <t>Potential for autonomous vehicles to reduce labour costs</t>
   </si>
   <si>
     <t xml:space="preserve">examples:
@@ -880,2102 +875,2940 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CP12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BH1" activeCellId="0" sqref="BH1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54285714285714" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col min="1" max="1" width="29.5714285714286" customWidth="1"/>
+    <col min="1024" max="1024" width="9.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:94">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:94">
+      <c r="A2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AA2" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AC2" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AD2" t="s">
         <v>97</v>
       </c>
-      <c r="AE2" s="0" t="s">
+      <c r="AE2" t="s">
         <v>97</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="AF2" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="0" t="s">
+      <c r="AG2" t="s">
         <v>96</v>
       </c>
-      <c r="AH2" s="0" t="s">
+      <c r="AH2" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="0" t="s">
+      <c r="AI2" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="0" t="s">
+      <c r="AJ2" t="s">
         <v>96</v>
       </c>
-      <c r="AK2" s="0" t="s">
+      <c r="AK2" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" s="0" t="s">
+      <c r="AL2" t="s">
         <v>97</v>
       </c>
-      <c r="AM2" s="0" t="s">
+      <c r="AM2" t="s">
         <v>96</v>
       </c>
-      <c r="AN2" s="0" t="s">
+      <c r="AN2" t="s">
         <v>97</v>
       </c>
-      <c r="AO2" s="0" t="s">
+      <c r="AO2" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" s="0" t="s">
+      <c r="AP2" t="s">
         <v>95</v>
       </c>
-      <c r="AQ2" s="0" t="s">
+      <c r="AQ2" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="0" t="s">
+      <c r="AR2" t="s">
         <v>95</v>
       </c>
-      <c r="AS2" s="0" t="s">
+      <c r="AS2" t="s">
         <v>95</v>
       </c>
-      <c r="AT2" s="0" t="s">
+      <c r="AT2" t="s">
         <v>96</v>
       </c>
-      <c r="AU2" s="0" t="s">
+      <c r="AU2" t="s">
         <v>95</v>
       </c>
-      <c r="AV2" s="0" t="s">
+      <c r="AV2" t="s">
         <v>97</v>
       </c>
-      <c r="AW2" s="0" t="s">
+      <c r="AW2" t="s">
         <v>95</v>
       </c>
-      <c r="AX2" s="0" t="s">
+      <c r="AX2" t="s">
         <v>95</v>
       </c>
-      <c r="AY2" s="0" t="s">
+      <c r="AY2" t="s">
         <v>96</v>
       </c>
-      <c r="AZ2" s="0" t="s">
+      <c r="AZ2" t="s">
         <v>97</v>
       </c>
-      <c r="BA2" s="0" t="s">
+      <c r="BA2" t="s">
         <v>96</v>
       </c>
-      <c r="BB2" s="0" t="s">
+      <c r="BB2" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" s="0" t="s">
+      <c r="BC2" t="s">
         <v>97</v>
       </c>
-      <c r="BD2" s="0" t="s">
+      <c r="BD2" t="s">
         <v>96</v>
       </c>
-      <c r="BE2" s="0" t="s">
+      <c r="BE2" t="s">
         <v>95</v>
       </c>
-      <c r="BF2" s="0" t="s">
+      <c r="BF2" t="s">
         <v>96</v>
       </c>
-      <c r="BG2" s="0" t="s">
+      <c r="BG2" t="s">
         <v>97</v>
       </c>
-      <c r="BH2" s="0" t="s">
+      <c r="BH2" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="0" t="s">
+      <c r="BI2" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="0" t="s">
+      <c r="BJ2" t="s">
         <v>95</v>
       </c>
-      <c r="BK2" s="0" t="s">
+      <c r="BK2" t="s">
         <v>95</v>
       </c>
-      <c r="BL2" s="0" t="s">
+      <c r="BL2" t="s">
         <v>96</v>
       </c>
-      <c r="BM2" s="0" t="s">
+      <c r="BM2" t="s">
         <v>96</v>
       </c>
-      <c r="BN2" s="0" t="s">
+      <c r="BN2" t="s">
         <v>95</v>
       </c>
-      <c r="BO2" s="0" t="s">
+      <c r="BO2" t="s">
         <v>97</v>
       </c>
-      <c r="BP2" s="0" t="s">
+      <c r="BP2" t="s">
         <v>96</v>
       </c>
-      <c r="BQ2" s="0" t="s">
+      <c r="BQ2" t="s">
         <v>96</v>
       </c>
-      <c r="BR2" s="0" t="s">
+      <c r="BR2" t="s">
         <v>97</v>
       </c>
-      <c r="BS2" s="0" t="s">
+      <c r="BS2" t="s">
         <v>97</v>
       </c>
-      <c r="BT2" s="0" t="s">
+      <c r="BT2" t="s">
         <v>97</v>
       </c>
-      <c r="BU2" s="0" t="s">
+      <c r="BU2" t="s">
         <v>97</v>
       </c>
-      <c r="BV2" s="0" t="s">
+      <c r="BV2" t="s">
         <v>97</v>
       </c>
-      <c r="BW2" s="0" t="s">
+      <c r="BW2" t="s">
         <v>97</v>
       </c>
-      <c r="BX2" s="0" t="s">
+      <c r="BX2" t="s">
         <v>97</v>
       </c>
-      <c r="BY2" s="0" t="s">
+      <c r="BY2" t="s">
         <v>97</v>
       </c>
-      <c r="BZ2" s="0" t="s">
+      <c r="BZ2" t="s">
         <v>97</v>
       </c>
-      <c r="CA2" s="0" t="s">
+      <c r="CA2" t="s">
         <v>96</v>
       </c>
-      <c r="CB2" s="0" t="s">
+      <c r="CB2" t="s">
         <v>96</v>
       </c>
-      <c r="CC2" s="0" t="s">
+      <c r="CC2" t="s">
         <v>95</v>
       </c>
-      <c r="CD2" s="0" t="s">
+      <c r="CD2" t="s">
         <v>96</v>
       </c>
-      <c r="CE2" s="0" t="s">
+      <c r="CE2" t="s">
         <v>96</v>
       </c>
-      <c r="CF2" s="0" t="s">
+      <c r="CF2" t="s">
         <v>96</v>
       </c>
-      <c r="CG2" s="0" t="s">
+      <c r="CG2" t="s">
         <v>96</v>
       </c>
-      <c r="CH2" s="0" t="s">
+      <c r="CH2" t="s">
         <v>96</v>
       </c>
-      <c r="CI2" s="0" t="s">
+      <c r="CI2" t="s">
         <v>96</v>
       </c>
-      <c r="CJ2" s="0" t="s">
+      <c r="CJ2" t="s">
         <v>96</v>
       </c>
-      <c r="CK2" s="0" t="s">
+      <c r="CK2" t="s">
         <v>96</v>
       </c>
-      <c r="CL2" s="0" t="s">
+      <c r="CL2" t="s">
         <v>96</v>
       </c>
-      <c r="CM2" s="0" t="s">
+      <c r="CM2" t="s">
         <v>96</v>
       </c>
-      <c r="CN2" s="0" t="s">
+      <c r="CN2" t="s">
         <v>96</v>
       </c>
-      <c r="CO2" s="0" t="s">
+      <c r="CO2" t="s">
         <v>96</v>
       </c>
-      <c r="CP2" s="0" t="s">
+      <c r="CP2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:94">
+      <c r="A3" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>99</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" t="s">
         <v>99</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AA3" t="s">
         <v>101</v>
       </c>
-      <c r="AB3" s="0" t="s">
+      <c r="AB3" t="s">
         <v>101</v>
       </c>
-      <c r="AC3" s="0" t="s">
+      <c r="AC3" t="s">
         <v>100</v>
       </c>
-      <c r="AD3" s="0" t="s">
+      <c r="AD3" t="s">
         <v>100</v>
       </c>
-      <c r="AE3" s="0" t="s">
+      <c r="AE3" t="s">
         <v>100</v>
       </c>
-      <c r="AF3" s="0" t="s">
+      <c r="AF3" t="s">
         <v>99</v>
       </c>
-      <c r="AG3" s="0" t="s">
+      <c r="AG3" t="s">
         <v>99</v>
       </c>
-      <c r="AH3" s="0" t="s">
+      <c r="AH3" t="s">
         <v>100</v>
       </c>
-      <c r="AI3" s="0" t="s">
+      <c r="AI3" t="s">
         <v>99</v>
       </c>
-      <c r="AJ3" s="0" t="s">
+      <c r="AJ3" t="s">
         <v>100</v>
       </c>
-      <c r="AK3" s="0" t="s">
+      <c r="AK3" t="s">
         <v>99</v>
       </c>
-      <c r="AL3" s="0" t="s">
+      <c r="AL3" t="s">
         <v>99</v>
       </c>
-      <c r="AM3" s="0" t="s">
+      <c r="AM3" t="s">
         <v>99</v>
       </c>
-      <c r="AN3" s="0" t="s">
+      <c r="AN3" t="s">
         <v>99</v>
       </c>
-      <c r="AO3" s="0" t="s">
+      <c r="AO3" t="s">
         <v>99</v>
       </c>
-      <c r="AP3" s="0" t="s">
+      <c r="AP3" t="s">
         <v>99</v>
       </c>
-      <c r="AQ3" s="0" t="s">
+      <c r="AQ3" t="s">
         <v>101</v>
       </c>
-      <c r="AR3" s="0" t="s">
+      <c r="AR3" t="s">
         <v>99</v>
       </c>
-      <c r="AS3" s="0" t="s">
+      <c r="AS3" t="s">
         <v>99</v>
       </c>
-      <c r="AT3" s="0" t="s">
+      <c r="AT3" t="s">
         <v>101</v>
       </c>
-      <c r="AU3" s="0" t="s">
+      <c r="AU3" t="s">
         <v>99</v>
       </c>
-      <c r="AV3" s="0" t="s">
+      <c r="AV3" t="s">
         <v>99</v>
       </c>
-      <c r="AW3" s="0" t="s">
+      <c r="AW3" t="s">
         <v>99</v>
       </c>
-      <c r="AX3" s="0" t="s">
+      <c r="AX3" t="s">
         <v>99</v>
       </c>
-      <c r="AY3" s="0" t="s">
+      <c r="AY3" t="s">
         <v>100</v>
       </c>
-      <c r="AZ3" s="0" t="s">
+      <c r="AZ3" t="s">
         <v>101</v>
       </c>
-      <c r="BA3" s="0" t="s">
+      <c r="BA3" t="s">
         <v>100</v>
       </c>
-      <c r="BB3" s="0" t="s">
+      <c r="BB3" t="s">
         <v>100</v>
       </c>
-      <c r="BC3" s="0" t="s">
+      <c r="BC3" t="s">
         <v>100</v>
       </c>
-      <c r="BD3" s="0" t="s">
+      <c r="BD3" t="s">
         <v>100</v>
       </c>
-      <c r="BE3" s="0" t="s">
+      <c r="BE3" t="s">
         <v>99</v>
       </c>
-      <c r="BF3" s="0" t="s">
+      <c r="BF3" t="s">
         <v>101</v>
       </c>
-      <c r="BG3" s="0" t="s">
+      <c r="BG3" t="s">
         <v>100</v>
       </c>
-      <c r="BH3" s="0" t="s">
+      <c r="BH3" t="s">
         <v>99</v>
       </c>
-      <c r="BI3" s="0" t="s">
+      <c r="BI3" t="s">
         <v>99</v>
       </c>
-      <c r="BJ3" s="0" t="s">
+      <c r="BJ3" t="s">
         <v>99</v>
       </c>
-      <c r="BK3" s="0" t="s">
+      <c r="BK3" t="s">
         <v>99</v>
       </c>
-      <c r="BL3" s="0" t="s">
+      <c r="BL3" t="s">
         <v>99</v>
       </c>
-      <c r="BM3" s="0" t="s">
+      <c r="BM3" t="s">
         <v>99</v>
       </c>
-      <c r="BN3" s="0" t="s">
+      <c r="BN3" t="s">
         <v>99</v>
       </c>
-      <c r="BO3" s="0" t="s">
+      <c r="BO3" t="s">
         <v>99</v>
       </c>
-      <c r="BP3" s="0" t="s">
+      <c r="BP3" t="s">
         <v>100</v>
       </c>
-      <c r="BQ3" s="0" t="s">
+      <c r="BQ3" t="s">
         <v>100</v>
       </c>
-      <c r="BR3" s="0" t="s">
+      <c r="BR3" t="s">
         <v>100</v>
       </c>
-      <c r="BS3" s="0" t="s">
+      <c r="BS3" t="s">
         <v>100</v>
       </c>
-      <c r="BT3" s="0" t="s">
+      <c r="BT3" t="s">
         <v>100</v>
       </c>
-      <c r="BU3" s="0" t="s">
+      <c r="BU3" t="s">
         <v>100</v>
       </c>
-      <c r="BV3" s="0" t="s">
+      <c r="BV3" t="s">
         <v>100</v>
       </c>
-      <c r="BW3" s="0" t="s">
+      <c r="BW3" t="s">
         <v>100</v>
       </c>
-      <c r="BX3" s="0" t="s">
+      <c r="BX3" t="s">
         <v>100</v>
       </c>
-      <c r="BY3" s="0" t="s">
+      <c r="BY3" t="s">
         <v>100</v>
       </c>
-      <c r="BZ3" s="0" t="s">
+      <c r="BZ3" t="s">
         <v>100</v>
       </c>
-      <c r="CA3" s="0" t="s">
+      <c r="CA3" t="s">
         <v>100</v>
       </c>
-      <c r="CB3" s="0" t="s">
+      <c r="CB3" t="s">
         <v>100</v>
       </c>
-      <c r="CC3" s="0" t="s">
+      <c r="CC3" t="s">
         <v>99</v>
       </c>
-      <c r="CD3" s="0" t="s">
+      <c r="CD3" t="s">
         <v>100</v>
       </c>
-      <c r="CE3" s="0" t="s">
+      <c r="CE3" t="s">
         <v>100</v>
       </c>
-      <c r="CF3" s="0" t="s">
+      <c r="CF3" t="s">
         <v>100</v>
       </c>
-      <c r="CG3" s="0" t="s">
+      <c r="CG3" t="s">
         <v>101</v>
       </c>
-      <c r="CH3" s="0" t="s">
+      <c r="CH3" t="s">
         <v>101</v>
       </c>
-      <c r="CI3" s="0" t="s">
+      <c r="CI3" t="s">
         <v>101</v>
       </c>
-      <c r="CJ3" s="0" t="s">
+      <c r="CJ3" t="s">
         <v>100</v>
       </c>
-      <c r="CK3" s="0" t="s">
+      <c r="CK3" t="s">
         <v>100</v>
       </c>
-      <c r="CL3" s="0" t="s">
+      <c r="CL3" t="s">
         <v>101</v>
       </c>
-      <c r="CM3" s="0" t="s">
+      <c r="CM3" t="s">
         <v>101</v>
       </c>
-      <c r="CN3" s="0" t="s">
+      <c r="CN3" t="s">
         <v>101</v>
       </c>
-      <c r="CO3" s="0" t="s">
+      <c r="CO3" t="s">
         <v>101</v>
       </c>
-      <c r="CP3" s="0" t="s">
+      <c r="CP3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:94">
+      <c r="A4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="X4" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="Y4" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="Z4" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="0" t="s">
+      <c r="AA4" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="0" t="s">
+      <c r="AB4" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="0" t="s">
+      <c r="AC4" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="0" t="s">
+      <c r="AD4" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="0" t="s">
+      <c r="AE4" t="s">
         <v>30</v>
       </c>
-      <c r="AF4" s="0" t="s">
+      <c r="AF4" t="s">
         <v>31</v>
       </c>
-      <c r="AG4" s="0" t="s">
+      <c r="AG4" t="s">
         <v>32</v>
       </c>
-      <c r="AH4" s="0" t="s">
+      <c r="AH4" t="s">
         <v>33</v>
       </c>
-      <c r="AI4" s="0" t="s">
+      <c r="AI4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="0" t="s">
+      <c r="AJ4" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" s="0" t="s">
+      <c r="AK4" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="0" t="s">
+      <c r="AL4" t="s">
         <v>37</v>
       </c>
-      <c r="AM4" s="0" t="s">
+      <c r="AM4" t="s">
         <v>38</v>
       </c>
-      <c r="AN4" s="0" t="s">
+      <c r="AN4" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="0" t="s">
+      <c r="AO4" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="0" t="s">
+      <c r="AP4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ4" s="0" t="s">
+      <c r="AQ4" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" s="0" t="s">
+      <c r="AR4" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="0" t="s">
+      <c r="AS4" t="s">
         <v>43</v>
       </c>
-      <c r="AT4" s="0" t="s">
+      <c r="AT4" t="s">
         <v>45</v>
       </c>
-      <c r="AU4" s="0" t="s">
+      <c r="AU4" t="s">
         <v>46</v>
       </c>
-      <c r="AV4" s="0" t="s">
+      <c r="AV4" t="s">
         <v>47</v>
       </c>
-      <c r="AW4" s="0" t="s">
+      <c r="AW4" t="s">
         <v>48</v>
       </c>
-      <c r="AX4" s="0" t="s">
+      <c r="AX4" t="s">
         <v>49</v>
       </c>
-      <c r="AY4" s="0" t="s">
+      <c r="AY4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ4" s="0" t="s">
+      <c r="AZ4" t="s">
         <v>51</v>
       </c>
-      <c r="BA4" s="0" t="s">
+      <c r="BA4" t="s">
         <v>52</v>
       </c>
-      <c r="BB4" s="0" t="s">
+      <c r="BB4" t="s">
         <v>53</v>
       </c>
-      <c r="BC4" s="0" t="s">
+      <c r="BC4" t="s">
         <v>54</v>
       </c>
-      <c r="BD4" s="0" t="s">
+      <c r="BD4" t="s">
         <v>55</v>
       </c>
-      <c r="BE4" s="0" t="s">
+      <c r="BE4" t="s">
         <v>56</v>
       </c>
-      <c r="BF4" s="0" t="s">
+      <c r="BF4" t="s">
         <v>57</v>
       </c>
-      <c r="BG4" s="0" t="s">
+      <c r="BG4" t="s">
         <v>58</v>
       </c>
-      <c r="BH4" s="0" t="s">
+      <c r="BH4" t="s">
         <v>59</v>
       </c>
-      <c r="BI4" s="0" t="s">
+      <c r="BI4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ4" s="0" t="s">
+      <c r="BJ4" t="s">
         <v>61</v>
       </c>
-      <c r="BK4" s="0" t="s">
+      <c r="BK4" t="s">
         <v>62</v>
       </c>
-      <c r="BL4" s="0" t="s">
+      <c r="BL4" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="0" t="s">
+      <c r="BM4" t="s">
         <v>64</v>
       </c>
-      <c r="BN4" s="0" t="s">
+      <c r="BN4" t="s">
         <v>65</v>
       </c>
-      <c r="BO4" s="0" t="s">
+      <c r="BO4" t="s">
         <v>66</v>
       </c>
-      <c r="BP4" s="0" t="s">
+      <c r="BP4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ4" s="0" t="s">
+      <c r="BQ4" t="s">
         <v>68</v>
       </c>
-      <c r="BR4" s="0" t="s">
+      <c r="BR4" t="s">
         <v>69</v>
       </c>
-      <c r="BS4" s="0" t="s">
+      <c r="BS4" t="s">
         <v>70</v>
       </c>
-      <c r="BT4" s="0" t="s">
+      <c r="BT4" t="s">
         <v>71</v>
       </c>
-      <c r="BU4" s="0" t="s">
+      <c r="BU4" t="s">
         <v>72</v>
       </c>
-      <c r="BV4" s="0" t="s">
+      <c r="BV4" t="s">
         <v>73</v>
       </c>
-      <c r="BW4" s="0" t="s">
+      <c r="BW4" t="s">
         <v>74</v>
       </c>
-      <c r="BX4" s="0" t="s">
+      <c r="BX4" t="s">
         <v>75</v>
       </c>
-      <c r="BY4" s="0" t="s">
+      <c r="BY4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ4" s="0" t="s">
+      <c r="BZ4" t="s">
         <v>77</v>
       </c>
-      <c r="CA4" s="0" t="s">
+      <c r="CA4" t="s">
         <v>78</v>
       </c>
-      <c r="CB4" s="0" t="s">
+      <c r="CB4" t="s">
         <v>79</v>
       </c>
-      <c r="CC4" s="0" t="s">
+      <c r="CC4" t="s">
         <v>80</v>
       </c>
-      <c r="CD4" s="0" t="s">
+      <c r="CD4" t="s">
         <v>81</v>
       </c>
-      <c r="CE4" s="0" t="s">
+      <c r="CE4" t="s">
         <v>82</v>
       </c>
-      <c r="CF4" s="0" t="s">
+      <c r="CF4" t="s">
         <v>83</v>
       </c>
-      <c r="CG4" s="0" t="s">
+      <c r="CG4" t="s">
         <v>84</v>
       </c>
-      <c r="CH4" s="0" t="s">
+      <c r="CH4" t="s">
         <v>85</v>
       </c>
-      <c r="CI4" s="0" t="s">
+      <c r="CI4" t="s">
         <v>86</v>
       </c>
-      <c r="CJ4" s="0" t="s">
+      <c r="CJ4" t="s">
         <v>87</v>
       </c>
-      <c r="CK4" s="0" t="s">
+      <c r="CK4" t="s">
         <v>88</v>
       </c>
-      <c r="CL4" s="0" t="s">
+      <c r="CL4" t="s">
         <v>89</v>
       </c>
-      <c r="CM4" s="0" t="s">
+      <c r="CM4" t="s">
         <v>90</v>
       </c>
-      <c r="CN4" s="0" t="s">
+      <c r="CN4" t="s">
         <v>91</v>
       </c>
-      <c r="CO4" s="0" t="s">
+      <c r="CO4" t="s">
         <v>92</v>
       </c>
-      <c r="CP4" s="0" t="s">
+      <c r="CP4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:94">
+      <c r="A5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" t="s">
         <v>105</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" t="s">
         <v>105</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" t="s">
         <v>105</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" t="s">
         <v>105</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" t="s">
         <v>105</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" t="s">
         <v>105</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" t="s">
         <v>105</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" t="s">
         <v>105</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="W5" t="s">
         <v>105</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="X5" t="s">
         <v>106</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Y5" t="s">
         <v>106</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="Z5" t="s">
         <v>106</v>
       </c>
-      <c r="AA5" s="0" t="s">
+      <c r="AA5" t="s">
         <v>107</v>
       </c>
-      <c r="AB5" s="0" t="s">
+      <c r="AB5" t="s">
         <v>106</v>
       </c>
-      <c r="AC5" s="0" t="s">
+      <c r="AC5" t="s">
         <v>108</v>
       </c>
-      <c r="AD5" s="0" t="s">
+      <c r="AD5" t="s">
         <v>108</v>
       </c>
-      <c r="AE5" s="0" t="s">
+      <c r="AE5" t="s">
         <v>109</v>
       </c>
-      <c r="AF5" s="0" t="s">
+      <c r="AF5" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="0" t="s">
+      <c r="AG5" t="s">
         <v>110</v>
       </c>
-      <c r="AH5" s="0" t="s">
+      <c r="AH5" t="s">
         <v>111</v>
       </c>
-      <c r="AI5" s="0" t="s">
+      <c r="AI5" t="s">
         <v>112</v>
       </c>
-      <c r="AJ5" s="0" t="s">
+      <c r="AJ5" t="s">
         <v>113</v>
       </c>
-      <c r="AK5" s="0" t="s">
+      <c r="AK5" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="0" t="s">
+      <c r="AL5" t="s">
         <v>106</v>
       </c>
-      <c r="AM5" s="0" t="s">
+      <c r="AM5" t="s">
         <v>106</v>
       </c>
-      <c r="AN5" s="0" t="s">
+      <c r="AN5" t="s">
         <v>107</v>
       </c>
-      <c r="AO5" s="0" t="s">
+      <c r="AO5" t="s">
         <v>114</v>
       </c>
-      <c r="AP5" s="0" t="s">
+      <c r="AP5" t="s">
         <v>114</v>
       </c>
-      <c r="AQ5" s="0" t="s">
+      <c r="AQ5" t="s">
         <v>114</v>
       </c>
-      <c r="AR5" s="0" t="s">
+      <c r="AR5" t="s">
         <v>106</v>
       </c>
-      <c r="AS5" s="0" t="s">
+      <c r="AS5" t="s">
         <v>106</v>
       </c>
-      <c r="AT5" s="0" t="s">
+      <c r="AT5" t="s">
         <v>114</v>
       </c>
-      <c r="AU5" s="0" t="s">
+      <c r="AU5" t="s">
         <v>106</v>
       </c>
-      <c r="AV5" s="0" t="s">
+      <c r="AV5" t="s">
         <v>115</v>
       </c>
-      <c r="AW5" s="0" t="s">
+      <c r="AW5" t="s">
         <v>106</v>
       </c>
-      <c r="AX5" s="0" t="s">
+      <c r="AX5" t="s">
         <v>106</v>
       </c>
-      <c r="AY5" s="0" t="s">
+      <c r="AY5" t="s">
         <v>116</v>
       </c>
-      <c r="AZ5" s="0" t="s">
+      <c r="AZ5" t="s">
         <v>116</v>
       </c>
-      <c r="BA5" s="0" t="s">
+      <c r="BA5" t="s">
         <v>112</v>
       </c>
-      <c r="BB5" s="0" t="s">
+      <c r="BB5" t="s">
         <v>112</v>
       </c>
-      <c r="BC5" s="0" t="s">
+      <c r="BC5" t="s">
         <v>113</v>
       </c>
-      <c r="BD5" s="0" t="s">
+      <c r="BD5" t="s">
         <v>117</v>
       </c>
-      <c r="BE5" s="0" t="s">
+      <c r="BE5" t="s">
         <v>106</v>
       </c>
-      <c r="BF5" s="0" t="s">
+      <c r="BF5" t="s">
         <v>106</v>
       </c>
-      <c r="BG5" s="0" t="s">
+      <c r="BG5" t="s">
         <v>109</v>
       </c>
-      <c r="BH5" s="0" t="s">
+      <c r="BH5" t="s">
         <v>106</v>
       </c>
-      <c r="BI5" s="0" t="s">
+      <c r="BI5" t="s">
         <v>114</v>
       </c>
-      <c r="BJ5" s="0" t="s">
+      <c r="BJ5" t="s">
         <v>114</v>
       </c>
-      <c r="BK5" s="0" t="s">
+      <c r="BK5" t="s">
         <v>114</v>
       </c>
-      <c r="BL5" s="0" t="s">
+      <c r="BL5" t="s">
         <v>114</v>
       </c>
-      <c r="BM5" s="0" t="s">
+      <c r="BM5" t="s">
         <v>116</v>
       </c>
-      <c r="BN5" s="0" t="s">
+      <c r="BN5" t="s">
         <v>118</v>
       </c>
-      <c r="BO5" s="0" t="s">
+      <c r="BO5" t="s">
         <v>119</v>
       </c>
-      <c r="BP5" s="0" t="s">
+      <c r="BP5" t="s">
         <v>120</v>
       </c>
-      <c r="BQ5" s="0" t="s">
+      <c r="BQ5" t="s">
         <v>120</v>
       </c>
-      <c r="BR5" s="0" t="s">
+      <c r="BR5" t="s">
         <v>108</v>
       </c>
-      <c r="BS5" s="0" t="s">
+      <c r="BS5" t="s">
         <v>108</v>
       </c>
-      <c r="BT5" s="0" t="s">
+      <c r="BT5" t="s">
         <v>108</v>
       </c>
-      <c r="BU5" s="0" t="s">
+      <c r="BU5" t="s">
         <v>108</v>
       </c>
-      <c r="BV5" s="0" t="s">
+      <c r="BV5" t="s">
         <v>108</v>
       </c>
-      <c r="BW5" s="0" t="s">
+      <c r="BW5" t="s">
         <v>108</v>
       </c>
-      <c r="BX5" s="0" t="s">
+      <c r="BX5" t="s">
         <v>108</v>
       </c>
-      <c r="BY5" s="0" t="s">
+      <c r="BY5" t="s">
         <v>115</v>
       </c>
-      <c r="BZ5" s="0" t="s">
+      <c r="BZ5" t="s">
         <v>115</v>
       </c>
-      <c r="CA5" s="0" t="s">
+      <c r="CA5" t="s">
         <v>121</v>
       </c>
-      <c r="CB5" s="0" t="s">
+      <c r="CB5" t="s">
         <v>122</v>
       </c>
-      <c r="CC5" s="0" t="s">
+      <c r="CC5" t="s">
         <v>123</v>
       </c>
-      <c r="CD5" s="0" t="s">
+      <c r="CD5" t="s">
         <v>124</v>
       </c>
-      <c r="CE5" s="0" t="s">
+      <c r="CE5" t="s">
         <v>125</v>
       </c>
-      <c r="CF5" s="0" t="s">
+      <c r="CF5" t="s">
         <v>125</v>
       </c>
-      <c r="CG5" s="0" t="s">
+      <c r="CG5" t="s">
         <v>126</v>
       </c>
-      <c r="CH5" s="0" t="s">
+      <c r="CH5" t="s">
         <v>126</v>
       </c>
-      <c r="CI5" s="0" t="s">
+      <c r="CI5" t="s">
         <v>127</v>
       </c>
-      <c r="CJ5" s="0" t="s">
+      <c r="CJ5" t="s">
         <v>128</v>
       </c>
-      <c r="CK5" s="0" t="s">
+      <c r="CK5" t="s">
         <v>128</v>
       </c>
-      <c r="CL5" s="0" t="s">
+      <c r="CL5" t="s">
         <v>128</v>
       </c>
-      <c r="CM5" s="0" t="s">
+      <c r="CM5" t="s">
         <v>128</v>
       </c>
-      <c r="CN5" s="0" t="s">
+      <c r="CN5" t="s">
         <v>128</v>
       </c>
-      <c r="CO5" s="0" t="s">
+      <c r="CO5" t="s">
         <v>128</v>
       </c>
-      <c r="CP5" s="0" t="s">
+      <c r="CP5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:94">
+      <c r="A6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>135</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" t="s">
         <v>135</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s">
         <v>135</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" t="s">
         <v>135</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="P6" t="s">
         <v>135</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" t="s">
         <v>136</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" t="s">
         <v>136</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="S6" t="s">
         <v>136</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" t="s">
         <v>136</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" t="s">
         <v>137</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" t="s">
         <v>134</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="W6" t="s">
         <v>137</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="X6" t="s">
         <v>136</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="Y6" t="s">
         <v>136</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="Z6" t="s">
         <v>136</v>
       </c>
-      <c r="AA6" s="0" t="s">
+      <c r="AA6" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="0" t="s">
+      <c r="AB6" t="s">
         <v>138</v>
       </c>
-      <c r="AC6" s="0" t="s">
+      <c r="AC6" t="s">
         <v>139</v>
       </c>
-      <c r="AD6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="0" t="s">
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="0" t="s">
+      <c r="AF6" t="s">
         <v>31</v>
       </c>
-      <c r="AG6" s="0" t="s">
+      <c r="AG6" t="s">
         <v>133</v>
       </c>
-      <c r="AH6" s="0" t="s">
+      <c r="AH6" t="s">
         <v>140</v>
       </c>
-      <c r="AI6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>141</v>
       </c>
-      <c r="AK6" s="0" t="s">
+      <c r="AK6" t="s">
         <v>142</v>
       </c>
-      <c r="AL6" s="0" t="s">
+      <c r="AL6" t="s">
         <v>143</v>
       </c>
-      <c r="AM6" s="0" t="s">
+      <c r="AM6" t="s">
         <v>144</v>
       </c>
-      <c r="AN6" s="0" t="s">
+      <c r="AN6" t="s">
         <v>145</v>
       </c>
-      <c r="AO6" s="0" t="s">
+      <c r="AO6" t="s">
         <v>146</v>
       </c>
-      <c r="AP6" s="0" t="s">
+      <c r="AP6" t="s">
         <v>147</v>
       </c>
-      <c r="AQ6" s="0" t="s">
+      <c r="AQ6" t="s">
         <v>148</v>
       </c>
-      <c r="AR6" s="0" t="s">
+      <c r="AR6" t="s">
         <v>149</v>
       </c>
-      <c r="AS6" s="0" t="s">
+      <c r="AS6" t="s">
         <v>149</v>
       </c>
-      <c r="AT6" s="0" t="s">
+      <c r="AT6" t="s">
         <v>150</v>
       </c>
-      <c r="AU6" s="0" t="s">
+      <c r="AU6" t="s">
         <v>151</v>
       </c>
-      <c r="AV6" s="0" t="s">
+      <c r="AV6" t="s">
         <v>152</v>
       </c>
-      <c r="AW6" s="0" t="s">
+      <c r="AW6" t="s">
         <v>153</v>
       </c>
-      <c r="AX6" s="0" t="s">
+      <c r="AX6" t="s">
         <v>154</v>
       </c>
-      <c r="AY6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="0" t="n">
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:94">
+      <c r="A7" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>156</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>156</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>156</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s">
         <v>156</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>156</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" t="s">
         <v>156</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" t="s">
         <v>156</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="R7" t="s">
         <v>156</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="S7" t="s">
         <v>156</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="T7" t="s">
         <v>156</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="U7" t="s">
         <v>156</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="V7" t="s">
         <v>156</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="W7" t="s">
         <v>156</v>
       </c>
-      <c r="X7" s="0" t="s">
+      <c r="X7" t="s">
         <v>156</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="Y7" t="s">
         <v>156</v>
       </c>
-      <c r="Z7" s="0" t="s">
+      <c r="Z7" t="s">
         <v>156</v>
       </c>
-      <c r="AA7" s="0" t="s">
+      <c r="AA7" t="s">
         <v>156</v>
       </c>
-      <c r="AB7" s="0" t="s">
+      <c r="AB7" t="s">
         <v>156</v>
       </c>
-      <c r="AC7" s="0" t="s">
+      <c r="AC7" t="s">
         <v>158</v>
       </c>
-      <c r="AD7" s="0" t="s">
+      <c r="AD7" t="s">
         <v>158</v>
       </c>
-      <c r="AE7" s="0" t="s">
+      <c r="AE7" t="s">
         <v>156</v>
       </c>
-      <c r="AF7" s="0" t="s">
+      <c r="AF7" t="s">
         <v>156</v>
       </c>
-      <c r="AG7" s="0" t="s">
+      <c r="AG7" t="s">
         <v>156</v>
       </c>
-      <c r="AH7" s="0" t="s">
+      <c r="AH7" t="s">
         <v>156</v>
       </c>
-      <c r="AI7" s="0" t="s">
+      <c r="AI7" t="s">
         <v>158</v>
       </c>
-      <c r="AJ7" s="0" t="s">
+      <c r="AJ7" t="s">
         <v>156</v>
       </c>
-      <c r="AK7" s="0" t="s">
+      <c r="AK7" t="s">
         <v>156</v>
       </c>
-      <c r="AL7" s="0" t="s">
+      <c r="AL7" t="s">
         <v>156</v>
       </c>
-      <c r="AM7" s="0" t="s">
+      <c r="AM7" t="s">
         <v>156</v>
       </c>
-      <c r="AN7" s="0" t="s">
+      <c r="AN7" t="s">
         <v>156</v>
       </c>
-      <c r="AO7" s="0" t="s">
+      <c r="AO7" t="s">
         <v>158</v>
       </c>
-      <c r="AP7" s="0" t="s">
+      <c r="AP7" t="s">
         <v>158</v>
       </c>
-      <c r="AQ7" s="0" t="s">
+      <c r="AQ7" t="s">
         <v>158</v>
       </c>
-      <c r="AR7" s="0" t="s">
+      <c r="AR7" t="s">
         <v>156</v>
       </c>
-      <c r="AS7" s="0" t="s">
+      <c r="AS7" t="s">
         <v>156</v>
       </c>
-      <c r="AT7" s="0" t="s">
+      <c r="AT7" t="s">
         <v>156</v>
       </c>
-      <c r="AU7" s="0" t="s">
+      <c r="AU7" t="s">
         <v>158</v>
       </c>
-      <c r="AV7" s="0" t="s">
+      <c r="AV7" t="s">
         <v>156</v>
       </c>
-      <c r="AW7" s="0" t="s">
+      <c r="AW7" t="s">
         <v>157</v>
       </c>
-      <c r="AX7" s="0" t="s">
+      <c r="AX7" t="s">
         <v>157</v>
       </c>
-      <c r="AY7" s="0" t="s">
+      <c r="AY7" t="s">
         <v>156</v>
       </c>
-      <c r="AZ7" s="0" t="s">
+      <c r="AZ7" t="s">
         <v>156</v>
       </c>
-      <c r="BA7" s="0" t="s">
+      <c r="BA7" t="s">
         <v>158</v>
       </c>
-      <c r="BB7" s="0" t="s">
+      <c r="BB7" t="s">
         <v>158</v>
       </c>
-      <c r="BC7" s="0" t="s">
+      <c r="BC7" t="s">
         <v>156</v>
       </c>
-      <c r="BD7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="0" t="s">
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="s">
         <v>157</v>
       </c>
-      <c r="BI7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="0" t="s">
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="s">
         <v>157</v>
       </c>
-      <c r="CK7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="0" t="n">
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" ht="13" customHeight="1" spans="1:94">
+      <c r="A8" t="s">
         <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3002,7 +3835,7 @@
       <c r="I8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>167</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -3032,16 +3865,16 @@
       <c r="S8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="T8" t="s">
         <v>169</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="U8" t="s">
         <v>167</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="V8" t="s">
         <v>167</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="W8" t="s">
         <v>167</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -3050,7 +3883,7 @@
       <c r="Y8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z8" s="0" t="s">
+      <c r="Z8" t="s">
         <v>169</v>
       </c>
       <c r="AA8" s="1" t="s">
@@ -3092,7 +3925,7 @@
       <c r="AM8" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AN8" s="0" t="s">
+      <c r="AN8" t="s">
         <v>179</v>
       </c>
       <c r="AO8" s="1" t="s">
@@ -3258,292 +4091,292 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customHeight="1" spans="1:94">
+      <c r="A9" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>187</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>188</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s">
         <v>188</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s">
         <v>188</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" t="s">
         <v>188</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" t="s">
         <v>188</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" t="s">
         <v>188</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" t="s">
         <v>188</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" t="s">
         <v>188</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="S9" t="s">
         <v>188</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="T9" t="s">
         <v>188</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="U9" t="s">
         <v>187</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="V9" t="s">
         <v>187</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="W9" t="s">
         <v>188</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="X9" t="s">
         <v>188</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="Y9" t="s">
         <v>188</v>
       </c>
-      <c r="Z9" s="0" t="s">
+      <c r="Z9" t="s">
         <v>188</v>
       </c>
-      <c r="AA9" s="0" t="s">
+      <c r="AA9" t="s">
         <v>189</v>
       </c>
-      <c r="AB9" s="0" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" s="0" t="s">
+      <c r="AC9" t="s">
         <v>189</v>
       </c>
-      <c r="AD9" s="0" t="s">
+      <c r="AD9" t="s">
         <v>189</v>
       </c>
-      <c r="AE9" s="0" t="s">
+      <c r="AE9" t="s">
         <v>189</v>
       </c>
-      <c r="AF9" s="0" t="s">
+      <c r="AF9" t="s">
         <v>189</v>
       </c>
-      <c r="AG9" s="0" t="s">
+      <c r="AG9" t="s">
         <v>189</v>
       </c>
-      <c r="AH9" s="0" t="s">
+      <c r="AH9" t="s">
         <v>189</v>
       </c>
-      <c r="AI9" s="0" t="s">
+      <c r="AI9" t="s">
         <v>187</v>
       </c>
-      <c r="AJ9" s="0" t="s">
+      <c r="AJ9" t="s">
         <v>188</v>
       </c>
-      <c r="AK9" s="0" t="s">
+      <c r="AK9" t="s">
         <v>189</v>
       </c>
-      <c r="AL9" s="0" t="s">
+      <c r="AL9" t="s">
         <v>189</v>
       </c>
-      <c r="AM9" s="0" t="s">
+      <c r="AM9" t="s">
         <v>187</v>
       </c>
-      <c r="AN9" s="0" t="s">
+      <c r="AN9" t="s">
         <v>189</v>
       </c>
-      <c r="AO9" s="0" t="s">
+      <c r="AO9" t="s">
         <v>187</v>
       </c>
-      <c r="AP9" s="0" t="s">
+      <c r="AP9" t="s">
         <v>187</v>
       </c>
-      <c r="AQ9" s="0" t="s">
+      <c r="AQ9" t="s">
         <v>187</v>
       </c>
-      <c r="AR9" s="0" t="s">
+      <c r="AR9" t="s">
         <v>187</v>
       </c>
-      <c r="AS9" s="0" t="s">
+      <c r="AS9" t="s">
         <v>187</v>
       </c>
-      <c r="AT9" s="0" t="s">
+      <c r="AT9" t="s">
         <v>187</v>
       </c>
-      <c r="AU9" s="0" t="s">
+      <c r="AU9" t="s">
         <v>187</v>
       </c>
-      <c r="AV9" s="0" t="s">
+      <c r="AV9" t="s">
         <v>188</v>
       </c>
-      <c r="AW9" s="0" t="s">
+      <c r="AW9" t="s">
         <v>187</v>
       </c>
-      <c r="AX9" s="0" t="s">
+      <c r="AX9" t="s">
         <v>187</v>
       </c>
-      <c r="AY9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="0" t="s">
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="s">
         <v>187</v>
       </c>
-      <c r="BI9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="0" t="n">
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customHeight="1" spans="1:94">
+      <c r="A10" t="s">
         <v>190</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3826,581 +4659,577 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" ht="12" customHeight="1" spans="1:94">
+      <c r="A11" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>221</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>222</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>221</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>221</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s">
         <v>221</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s">
         <v>221</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" t="s">
         <v>221</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="P11" t="s">
         <v>221</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" t="s">
         <v>217</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" t="s">
         <v>217</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" t="s">
         <v>217</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="T11" t="s">
         <v>217</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="U11" t="s">
         <v>222</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="V11" t="s">
         <v>222</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="W11" t="s">
         <v>222</v>
       </c>
-      <c r="X11" s="0" t="s">
+      <c r="X11" t="s">
         <v>217</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="Y11" t="s">
         <v>217</v>
       </c>
-      <c r="Z11" s="0" t="s">
+      <c r="Z11" t="s">
         <v>217</v>
       </c>
-      <c r="AA11" s="0" t="s">
+      <c r="AA11" t="s">
         <v>223</v>
       </c>
-      <c r="AB11" s="0" t="s">
+      <c r="AB11" t="s">
         <v>224</v>
       </c>
-      <c r="AC11" s="0" t="s">
+      <c r="AC11" t="s">
         <v>225</v>
       </c>
-      <c r="AD11" s="0" t="s">
+      <c r="AD11" t="s">
         <v>225</v>
       </c>
-      <c r="AE11" s="0" t="s">
+      <c r="AE11" t="s">
         <v>223</v>
       </c>
-      <c r="AF11" s="0" t="s">
+      <c r="AF11" t="s">
         <v>223</v>
       </c>
-      <c r="AG11" s="0" t="s">
+      <c r="AG11" t="s">
         <v>220</v>
       </c>
-      <c r="AH11" s="0" t="s">
+      <c r="AH11" t="s">
         <v>226</v>
       </c>
-      <c r="AI11" s="0" t="s">
+      <c r="AI11" t="s">
         <v>227</v>
       </c>
-      <c r="AJ11" s="0" t="s">
+      <c r="AJ11" t="s">
         <v>228</v>
       </c>
-      <c r="AK11" s="0" t="s">
+      <c r="AK11" t="s">
         <v>222</v>
       </c>
-      <c r="AL11" s="0" t="s">
+      <c r="AL11" t="s">
         <v>229</v>
       </c>
-      <c r="AM11" s="0" t="s">
+      <c r="AM11" t="s">
         <v>222</v>
       </c>
-      <c r="AN11" s="0" t="s">
+      <c r="AN11" t="s">
         <v>222</v>
       </c>
-      <c r="AO11" s="0" t="s">
+      <c r="AO11" t="s">
         <v>217</v>
       </c>
-      <c r="AP11" s="0" t="s">
+      <c r="AP11" t="s">
         <v>217</v>
       </c>
-      <c r="AQ11" s="0" t="s">
+      <c r="AQ11" t="s">
         <v>230</v>
       </c>
-      <c r="AR11" s="0" t="s">
+      <c r="AR11" t="s">
         <v>231</v>
       </c>
-      <c r="AS11" s="0" t="s">
+      <c r="AS11" t="s">
         <v>231</v>
       </c>
-      <c r="AT11" s="0" t="s">
+      <c r="AT11" t="s">
         <v>232</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AV11" s="0" t="s">
+      <c r="AV11" t="s">
         <v>222</v>
       </c>
-      <c r="AW11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="0" t="n">
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
         <v>0</v>
       </c>
       <c r="BH11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BI11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" s="0" t="n">
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" ht="12" customHeight="1" spans="1:94">
+      <c r="A12" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>236</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0" t="s">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>237</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="R12" t="s">
         <v>237</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="S12" t="s">
         <v>237</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="T12" t="s">
         <v>237</v>
       </c>
-      <c r="U12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="0" t="s">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
         <v>237</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="Y12" t="s">
         <v>237</v>
       </c>
-      <c r="Z12" s="0" t="s">
+      <c r="Z12" t="s">
         <v>237</v>
       </c>
-      <c r="AA12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="0" t="s">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
         <v>238</v>
       </c>
-      <c r="AC12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="0" t="s">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="s">
         <v>239</v>
       </c>
-      <c r="AP12" s="0" t="s">
+      <c r="AP12" t="s">
         <v>240</v>
       </c>
-      <c r="AQ12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="0" t="s">
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="s">
         <v>241</v>
       </c>
-      <c r="AS12" s="0" t="s">
+      <c r="AS12" t="s">
         <v>241</v>
       </c>
       <c r="AT12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AU12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="0" t="s">
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
         <v>241</v>
       </c>
-      <c r="AX12" s="0" t="s">
+      <c r="AX12" t="s">
         <v>241</v>
       </c>
-      <c r="AY12" s="0" t="s">
+      <c r="AY12" t="s">
         <v>135</v>
       </c>
-      <c r="AZ12" s="0" t="s">
+      <c r="AZ12" t="s">
         <v>135</v>
       </c>
-      <c r="BA12" s="0" t="s">
+      <c r="BA12" t="s">
         <v>135</v>
       </c>
-      <c r="BB12" s="0" t="s">
+      <c r="BB12" t="s">
         <v>135</v>
       </c>
-      <c r="BC12" s="0" t="s">
+      <c r="BC12" t="s">
         <v>135</v>
       </c>
-      <c r="BD12" s="0" t="s">
+      <c r="BD12" t="s">
         <v>135</v>
       </c>
-      <c r="BE12" s="0" t="s">
+      <c r="BE12" t="s">
         <v>135</v>
       </c>
-      <c r="BF12" s="0" t="s">
+      <c r="BF12" t="s">
         <v>135</v>
       </c>
-      <c r="BG12" s="0" t="s">
+      <c r="BG12" t="s">
         <v>135</v>
       </c>
-      <c r="BH12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="0" t="s">
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="s">
         <v>135</v>
       </c>
-      <c r="BJ12" s="0" t="s">
+      <c r="BJ12" t="s">
         <v>135</v>
       </c>
-      <c r="BK12" s="0" t="s">
+      <c r="BK12" t="s">
         <v>135</v>
       </c>
-      <c r="BL12" s="0" t="s">
+      <c r="BL12" t="s">
         <v>135</v>
       </c>
-      <c r="BM12" s="0" t="s">
+      <c r="BM12" t="s">
         <v>135</v>
       </c>
-      <c r="BN12" s="0" t="s">
+      <c r="BN12" t="s">
         <v>135</v>
       </c>
-      <c r="BO12" s="0" t="s">
+      <c r="BO12" t="s">
         <v>135</v>
       </c>
-      <c r="BP12" s="0" t="s">
+      <c r="BP12" t="s">
         <v>135</v>
       </c>
-      <c r="BQ12" s="0" t="s">
+      <c r="BQ12" t="s">
         <v>135</v>
       </c>
-      <c r="BR12" s="0" t="s">
+      <c r="BR12" t="s">
         <v>135</v>
       </c>
-      <c r="BS12" s="0" t="s">
+      <c r="BS12" t="s">
         <v>135</v>
       </c>
-      <c r="BT12" s="0" t="s">
+      <c r="BT12" t="s">
         <v>135</v>
       </c>
-      <c r="BU12" s="0" t="s">
+      <c r="BU12" t="s">
         <v>135</v>
       </c>
-      <c r="BV12" s="0" t="s">
+      <c r="BV12" t="s">
         <v>135</v>
       </c>
-      <c r="BW12" s="0" t="s">
+      <c r="BW12" t="s">
         <v>135</v>
       </c>
-      <c r="BX12" s="0" t="s">
+      <c r="BX12" t="s">
         <v>135</v>
       </c>
-      <c r="BY12" s="0" t="s">
+      <c r="BY12" t="s">
         <v>135</v>
       </c>
-      <c r="BZ12" s="0" t="s">
+      <c r="BZ12" t="s">
         <v>135</v>
       </c>
-      <c r="CA12" s="0" t="s">
+      <c r="CA12" t="s">
         <v>135</v>
       </c>
-      <c r="CB12" s="0" t="s">
+      <c r="CB12" t="s">
         <v>135</v>
       </c>
-      <c r="CC12" s="0" t="s">
+      <c r="CC12" t="s">
         <v>135</v>
       </c>
-      <c r="CD12" s="0" t="s">
+      <c r="CD12" t="s">
         <v>135</v>
       </c>
-      <c r="CE12" s="0" t="s">
+      <c r="CE12" t="s">
         <v>135</v>
       </c>
-      <c r="CF12" s="0" t="s">
+      <c r="CF12" t="s">
         <v>135</v>
       </c>
-      <c r="CG12" s="0" t="s">
+      <c r="CG12" t="s">
         <v>135</v>
       </c>
-      <c r="CH12" s="0" t="s">
+      <c r="CH12" t="s">
         <v>135</v>
       </c>
-      <c r="CI12" s="0" t="s">
+      <c r="CI12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ12" s="0" t="s">
+      <c r="CJ12" t="s">
         <v>135</v>
       </c>
-      <c r="CK12" s="0" t="s">
+      <c r="CK12" t="s">
         <v>135</v>
       </c>
-      <c r="CL12" s="0" t="s">
+      <c r="CL12" t="s">
         <v>135</v>
       </c>
-      <c r="CM12" s="0" t="s">
+      <c r="CM12" t="s">
         <v>135</v>
       </c>
-      <c r="CN12" s="0" t="s">
+      <c r="CN12" t="s">
         <v>135</v>
       </c>
-      <c r="CO12" s="0" t="s">
+      <c r="CO12" t="s">
         <v>135</v>
       </c>
-      <c r="CP12" s="0" t="s">
+      <c r="CP12" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>